--- a/Application/Reports/Week 10 (10 Oct 2016)/ChefReports/ChefReports Week - 10 ( Low Carb ).xlsx
+++ b/Application/Reports/Week 10 (10 Oct 2016)/ChefReports/ChefReports Week - 10 ( Low Carb ).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="19">
   <si>
     <t>Doorstep Chef - Chef Report 10 Oct 2016</t>
   </si>
@@ -48,18 +48,6 @@
     <t>Couple Normal *</t>
   </si>
   <si>
-    <t>Three Meal</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>sdfsdfsdfsdfsdvvvvvvvvvv</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Three Normal *</t>
   </si>
   <si>
@@ -72,7 +60,7 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Mon Oct 2016 13:37:17</t>
+    <t>Mon Oct 2016 14:29:40</t>
   </si>
   <si>
     <t>Meal Type : Low Carb  Route: 1</t>
@@ -92,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="220">
+  <fonts count="216">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -190,22 +178,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1160,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1215,10 +1187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1238,6 +1206,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -1259,17 +1239,11 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
@@ -1277,12 +1251,6 @@
     <xf numFmtId="0" fontId="62" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1310,6 +1278,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -1331,17 +1311,11 @@
     <xf numFmtId="0" fontId="97" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="99" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
@@ -1349,12 +1323,6 @@
     <xf numFmtId="0" fontId="105" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1382,6 +1350,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="134" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -1403,17 +1383,11 @@
     <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="146" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
@@ -1421,12 +1395,6 @@
     <xf numFmtId="0" fontId="148" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1454,6 +1422,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -1475,28 +1455,16 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="185" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="189" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="191" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1629,18 +1597,18 @@
         <v>10</v>
       </c>
       <c r="B6" t="s" s="25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="26">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s" s="27">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s" s="29">
         <v>8</v>
@@ -1654,7 +1622,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="32">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="33">
         <v>8</v>
@@ -1668,7 +1636,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="36">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s" s="37">
         <v>8</v>
@@ -1680,29 +1648,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="40">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s" s="41">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="44">
-        <v>18</v>
+    <row r="11">
+      <c r="A11" t="s" s="40">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1724,143 +1678,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="45">
+      <c r="A1" t="s" s="41">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="46">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="47">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="48">
-        <v>19</v>
+      <c r="B1" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="44">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="49">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="50">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="51">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="52">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="53">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="54">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="55">
+      <c r="A2" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="56">
+      <c r="A3" t="s" s="52">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="57">
+      <c r="B3" t="s" s="53">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="58">
+      <c r="C3" t="s" s="54">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="59">
+      <c r="D3" t="s" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="60">
+      <c r="A4" t="s" s="56">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="61">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="62">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="63">
+      <c r="B4" t="s" s="57">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="64">
+      <c r="A5" t="s" s="60">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="65">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="66">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="67">
+      <c r="B5" t="s" s="61">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="68">
+      <c r="A6" t="s" s="64">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="65">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="68">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="69">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="72">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="73">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="76">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="80">
         <v>14</v>
-      </c>
-      <c r="B6" t="s" s="69">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="70">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="72">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="73">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="74">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="76">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="77">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="78">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="80">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s" s="81">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="82">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="84">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1888,143 +1842,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="85">
+      <c r="A1" t="s" s="81">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="88">
-        <v>20</v>
+      <c r="B1" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="84">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="90">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="91">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="92">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="93">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="94">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="95">
+      <c r="A2" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="89">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="96">
+      <c r="A3" t="s" s="92">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="97">
+      <c r="B3" t="s" s="93">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="98">
+      <c r="C3" t="s" s="94">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="99">
+      <c r="D3" t="s" s="95">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="100">
+      <c r="A4" t="s" s="96">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="101">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="102">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="103">
+      <c r="B4" t="s" s="97">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="104">
+      <c r="A5" t="s" s="100">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="105">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="107">
+      <c r="B5" t="s" s="101">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="108">
+      <c r="A6" t="s" s="104">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="105">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="108">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="109">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="110">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="112">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="113">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="116">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="117">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="120">
         <v>14</v>
-      </c>
-      <c r="B6" t="s" s="109">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="110">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="112">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="113">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="116">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="117">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="120">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s" s="121">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="122">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="124">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2052,143 +2006,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="125">
+      <c r="A1" t="s" s="121">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="127">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="128">
-        <v>21</v>
+      <c r="B1" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="123">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="124">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="130">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="131">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="132">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="133">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="134">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="135">
+      <c r="A2" t="s" s="125">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="126">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="127">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="128">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="129">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="130">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="136">
+      <c r="A3" t="s" s="132">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="137">
+      <c r="B3" t="s" s="133">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="138">
+      <c r="C3" t="s" s="134">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="139">
+      <c r="D3" t="s" s="135">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="140">
+      <c r="A4" t="s" s="136">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="141">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="142">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="143">
+      <c r="B4" t="s" s="137">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="139">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="144">
+      <c r="A5" t="s" s="140">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="145">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="147">
+      <c r="B5" t="s" s="141">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="142">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="143">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="148">
+      <c r="A6" t="s" s="144">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="145">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="148">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="149">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="152">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="153">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="154">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="156">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="157">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="160">
         <v>14</v>
-      </c>
-      <c r="B6" t="s" s="149">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="150">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="152">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="153">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="154">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="156">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="157">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="160">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s" s="161">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="162">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="164">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2216,143 +2170,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="165">
+      <c r="A1" t="s" s="161">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="166">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="167">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="168">
-        <v>22</v>
+      <c r="B1" t="s" s="162">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="163">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="164">
+        <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="169">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="170">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="171">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="172">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="173">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="175">
+      <c r="A2" t="s" s="165">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="166">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="168">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="170">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="171">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="176">
+      <c r="A3" t="s" s="172">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="177">
+      <c r="B3" t="s" s="173">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="178">
+      <c r="C3" t="s" s="174">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="179">
+      <c r="D3" t="s" s="175">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="180">
+      <c r="A4" t="s" s="176">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="181">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="182">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="183">
+      <c r="B4" t="s" s="177">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="179">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="184">
+      <c r="A5" t="s" s="180">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="185">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="186">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="187">
+      <c r="B5" t="s" s="181">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="182">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="183">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="188">
+      <c r="A6" t="s" s="184">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="185">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="186">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="188">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="189">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="190">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="192">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="193">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="196">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="197">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="198">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="200">
         <v>14</v>
-      </c>
-      <c r="B6" t="s" s="189">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="190">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="192">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="193">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="194">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="196">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="197">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="198">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="200">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s" s="201">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="204">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Application/Reports/Week 10 (10 Oct 2016)/ChefReports/ChefReports Week - 10 ( Low Carb ).xlsx
+++ b/Application/Reports/Week 10 (10 Oct 2016)/ChefReports/ChefReports Week - 10 ( Low Carb ).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="20">
   <si>
     <t>Doorstep Chef - Chef Report 10 Oct 2016</t>
   </si>
@@ -55,7 +55,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>Wed Oct 2016 11:25:45</t>
+    <t>Wed Oct 2016 11:35:36</t>
   </si>
   <si>
     <t>Meal Type : Low Carb  Route: 1</t>
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="194">
+  <fonts count="122">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -406,150 +406,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -729,150 +585,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1015,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1118,178 +830,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="90" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="94" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="109" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="111" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="113" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1563,141 +1203,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="72">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s" s="73">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s" s="74">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s" s="75">
-        <v>1</v>
-      </c>
-    </row>
     <row r="19">
-      <c r="A19" t="s" s="76">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s" s="77">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s" s="78">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="80">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s" s="81">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s" s="82">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="84">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s" s="85">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="88">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s" s="89">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s" s="90">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="92">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s" s="93">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s" s="94">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="96">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s" s="97">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s" s="98">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="100">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s" s="101">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s" s="102">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="104">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s" s="105">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s" s="107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="108">
+      <c r="A19" t="s" s="72">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1719,58 +1233,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="109">
+      <c r="A1" t="s" s="73">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="110">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="111">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="112">
+      <c r="B1" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="75">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="76">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="113">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="117">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="119">
+      <c r="A2" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="80">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="81">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="120">
+      <c r="A3" t="s" s="84">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="121">
+      <c r="B3" t="s" s="85">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="122">
+      <c r="C3" t="s" s="86">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="123">
+      <c r="D3" t="s" s="87">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="124">
+      <c r="A5" t="s" s="88">
         <v>13</v>
       </c>
     </row>
@@ -1799,219 +1313,93 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="125">
+      <c r="A1" t="s" s="89">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="127">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="128">
+      <c r="B1" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="91">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="92">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="130">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="131">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="132">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="133">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="134">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="135">
+      <c r="A2" t="s" s="93">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="94">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="95">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="96">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="97">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="136">
+      <c r="A3" t="s" s="100">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="137">
+      <c r="B3" t="s" s="101">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="138">
+      <c r="C3" t="s" s="102">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="139">
+      <c r="D3" t="s" s="103">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="140">
+      <c r="A4" t="s" s="104">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="141">
+      <c r="B4" t="s" s="105">
         <v>17</v>
       </c>
-      <c r="C4" t="s" s="142">
+      <c r="C4" t="s" s="106">
         <v>18</v>
       </c>
-      <c r="D4" t="s" s="143">
+      <c r="D4" t="s" s="107">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="144">
+      <c r="A5" t="s" s="108">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="145">
+      <c r="B5" t="s" s="109">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="148">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s" s="149">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="150">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="151">
+      <c r="C5" t="s" s="110">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="152">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s" s="153">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s" s="154">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="156">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s" s="157">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="160">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s" s="161">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="162">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="164">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s" s="165">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s" s="166">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="168">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s" s="169">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s" s="170">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="172">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s" s="173">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="176">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s" s="177">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s" s="178">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s" s="179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="180">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s" s="181">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s" s="182">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s" s="183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="184">
+      <c r="A7" t="s" s="112">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
